--- a/AzureFraud-Policies.xlsx
+++ b/AzureFraud-Policies.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/muammerb_microsoft_com/Documents/Microsoft Teams Chat Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{1188E6C6-8D4C-4875-AE15-2F2E8484F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD276740-15FE-4B04-BC97-F8E806AAB1F0}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{1188E6C6-8D4C-4875-AE15-2F2E8484F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25316588-8E11-46F8-8998-2EF012F1EA2B}"/>
   <bookViews>
-    <workbookView xWindow="48480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{806F6375-74C6-49F4-A919-9D7656E12EAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32620" windowHeight="21100" xr2:uid="{806F6375-74C6-49F4-A919-9D7656E12EAC}"/>
   </bookViews>
   <sheets>
     <sheet name="All Policies" sheetId="1" r:id="rId1"/>
     <sheet name="Security Policies" sheetId="3" r:id="rId2"/>
     <sheet name="Cost Policies" sheetId="4" r:id="rId3"/>
-    <sheet name="Additonal Policies" sheetId="5" r:id="rId4"/>
+    <sheet name="Optional Policies" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -570,24 +570,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -603,19 +591,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -641,7 +643,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A850-089A-4857-B8A9-535AECF3F580}" name="Table1" displayName="Table1" ref="B2:E74" totalsRowShown="0">
   <autoFilter ref="B2:E74" xr:uid="{8FE8A850-089A-4857-B8A9-535AECF3F580}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{23E603A9-26C3-4D1A-A80F-250F933D4C8E}" name="Category" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{23E603A9-26C3-4D1A-A80F-250F933D4C8E}" name="Category" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{98F16820-D83E-4937-B29B-9BAE8DCA20B5}" name="Policy" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" xr3:uid="{148AFFE9-407A-4D1A-9A36-0A93D48CEF3F}" name="Effect(s)"/>
     <tableColumn id="4" xr3:uid="{C669DF01-A97D-4690-BD66-EC53EFD6E41D}" name="Github"/>
@@ -654,7 +656,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CACBD1F-268A-40D6-881F-18D63C02111C}" name="Table13" displayName="Table13" ref="B2:E30" totalsRowShown="0">
   <autoFilter ref="B2:E30" xr:uid="{8FE8A850-089A-4857-B8A9-535AECF3F580}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E01E81A6-60BF-446C-AB31-BE80854CAE3B}" name="Category"/>
+    <tableColumn id="1" xr3:uid="{E01E81A6-60BF-446C-AB31-BE80854CAE3B}" name="Category" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{C8E12186-95AD-4604-8541-A429BCE8E78F}" name="Policy" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" xr3:uid="{FBBD2255-775A-4702-8DD1-C9E5E67460B1}" name="Effect(s)"/>
     <tableColumn id="4" xr3:uid="{6F1032A3-3A77-4B75-B1E2-4AEDBAD6CC60}" name="Github"/>
@@ -667,7 +669,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE71651D-3DE5-4B0A-A683-AED83180CC4F}" name="Table14" displayName="Table14" ref="B2:E6" totalsRowShown="0">
   <autoFilter ref="B2:E6" xr:uid="{8FE8A850-089A-4857-B8A9-535AECF3F580}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E1F52936-B945-442D-A3AD-4B06742D966E}" name="Category"/>
+    <tableColumn id="1" xr3:uid="{E1F52936-B945-442D-A3AD-4B06742D966E}" name="Category" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1BDC8E5A-AACD-4A87-8C9A-38DC9EBF6A4A}" name="Policy" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" xr3:uid="{28955E1D-6211-4A19-AEF8-7AA4E2B27B6C}" name="Effect(s)"/>
     <tableColumn id="4" xr3:uid="{2C7BF154-CCCF-493E-AA50-08D1BE523F80}" name="Github"/>
@@ -1015,7 +1017,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1029,7 +1031,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1043,7 +1045,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1057,7 +1059,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1071,7 +1073,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1085,7 +1087,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1099,7 +1101,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1113,7 +1115,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1127,7 +1129,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1141,7 +1143,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1155,7 +1157,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1169,7 +1171,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1183,7 +1185,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1197,7 +1199,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1211,7 +1213,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1225,7 +1227,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1239,7 +1241,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1253,7 +1255,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1267,7 +1269,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1281,7 +1283,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1295,7 +1297,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1309,7 +1311,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1323,7 +1325,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1337,7 +1339,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1351,7 +1353,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1365,7 +1367,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1379,7 +1381,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1393,7 +1395,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1407,7 +1409,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1421,7 +1423,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1435,7 +1437,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1449,7 +1451,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1463,7 +1465,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1477,7 +1479,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1491,7 +1493,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1505,7 +1507,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1519,7 +1521,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1533,7 +1535,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1547,7 +1549,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1561,7 +1563,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1575,7 +1577,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1589,7 +1591,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1603,7 +1605,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1617,7 +1619,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1631,7 +1633,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1645,7 +1647,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1659,7 +1661,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>59</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1673,7 +1675,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1687,7 +1689,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1701,7 +1703,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="5" t="s">
+      <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1715,7 +1717,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="5" t="s">
+      <c r="B53" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1729,7 +1731,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="5" t="s">
+      <c r="B54" t="s">
         <v>59</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1743,7 +1745,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="5" t="s">
+      <c r="B55" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1757,7 +1759,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="5" t="s">
+      <c r="B56" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1771,7 +1773,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="5" t="s">
+      <c r="B57" t="s">
         <v>59</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1785,7 +1787,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="5" t="s">
+      <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1799,7 +1801,7 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B59" s="5" t="s">
+      <c r="B59" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1813,7 +1815,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B60" s="5" t="s">
+      <c r="B60" t="s">
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1827,7 +1829,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B61" s="5" t="s">
+      <c r="B61" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1841,7 +1843,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B62" s="5" t="s">
+      <c r="B62" t="s">
         <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1855,7 +1857,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B63" s="5" t="s">
+      <c r="B63" t="s">
         <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1869,7 +1871,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B64" s="5" t="s">
+      <c r="B64" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1883,7 +1885,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="5" t="s">
+      <c r="B65" t="s">
         <v>59</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -1897,7 +1899,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B66" s="5" t="s">
+      <c r="B66" t="s">
         <v>59</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1911,7 +1913,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="5" t="s">
+      <c r="B67" t="s">
         <v>59</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1925,7 +1927,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="5" t="s">
+      <c r="B68" t="s">
         <v>59</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1939,7 +1941,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B69" s="5" t="s">
+      <c r="B69" t="s">
         <v>59</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1953,7 +1955,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B70" s="5" t="s">
+      <c r="B70" t="s">
         <v>59</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1967,7 +1969,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B71" s="5" t="s">
+      <c r="B71" t="s">
         <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1981,7 +1983,7 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B72" s="5" t="s">
+      <c r="B72" t="s">
         <v>89</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -1995,7 +1997,7 @@
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B73" s="5" t="s">
+      <c r="B73" t="s">
         <v>89</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2009,7 +2011,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B74" s="5" t="s">
+      <c r="B74" t="s">
         <v>89</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2110,7 +2112,7 @@
   <dimension ref="B2:E30"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2136,7 +2138,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2150,7 +2152,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2164,7 +2166,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2178,7 +2180,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2192,7 +2194,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2206,7 +2208,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2220,7 +2222,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2234,7 +2236,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2248,7 +2250,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2262,7 +2264,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2276,7 +2278,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2290,7 +2292,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2304,7 +2306,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2318,7 +2320,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2332,7 +2334,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2346,7 +2348,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2360,7 +2362,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2374,7 +2376,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2388,7 +2390,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2402,7 +2404,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2416,7 +2418,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2430,7 +2432,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2444,7 +2446,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2458,7 +2460,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2472,7 +2474,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2486,7 +2488,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2500,7 +2502,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2514,7 +2516,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2571,7 +2573,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2671,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FE16FB-6146-4488-A5B5-DC4B569785E3}">
   <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
